--- a/reg/tot.xlsx
+++ b/reg/tot.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,205 +44,193 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">8.669+</t>
+    <t xml:space="preserve">0.263</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">5.446***</t>
+    <t xml:space="preserve">-1.006</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(5.032)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.040)</t>
+    <t xml:space="preserve">(0.179)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(15.109)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_INST</t>
   </si>
   <si>
-    <t xml:space="preserve">2.678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.114***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.232***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.744)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.689)</t>
+    <t xml:space="preserve">-0.086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.064)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.180)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(5.285)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.211)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_LABOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.028)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.035)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.295)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.562)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_BUSINESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.810**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.025)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.860)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.271)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lGRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.007)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.589)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.182)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.129***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.607)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.030)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lbudget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.929)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.146)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lhrpay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.050</t>
   </si>
   <si>
     <t xml:space="preserve">(0.016)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.656)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_LABOUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.434+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.950+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.750)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.346)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.498)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_BUSINESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.068+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.069*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.288)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.435)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.875)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lGRP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.183+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.388***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.229+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.199)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.029)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.136)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lpop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.125***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.104*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.052***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.210)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.025)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.082)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lbudget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.467***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.318)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.021)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.177)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lhrpay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.251**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.011***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.915***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.446)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.289)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.109)</t>
+    <t xml:space="preserve">(0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.333)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -251,31 +239,31 @@
     <t xml:space="preserve">Num.Obs.</t>
   </si>
   <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
     <t xml:space="preserve">40</t>
   </si>
   <si>
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972</t>
+    <t xml:space="preserve">0.131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769</t>
+    <t xml:space="preserve">0.279</t>
   </si>
 </sst>
 </file>
@@ -854,10 +842,10 @@
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -865,16 +853,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
@@ -888,7 +876,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -900,10 +888,10 @@
         <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -911,22 +899,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>61</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>62</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -934,22 +922,22 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
         <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16">
@@ -957,22 +945,22 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
         <v>69</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -980,76 +968,76 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
         <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>80</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
         <v>81</v>
-      </c>
-      <c r="E19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1058,13 +1046,13 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/reg/tot.xlsx
+++ b/reg/tot.xlsx
@@ -149,7 +149,7 @@
     <t xml:space="preserve">0.002</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.000</t>
+    <t xml:space="preserve">0.000</t>
   </si>
   <si>
     <t xml:space="preserve">0.020</t>

--- a/reg/tot.xlsx
+++ b/reg/tot.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,193 +44,307 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">0.263</t>
+    <t xml:space="preserve">-3.541</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">-1.006</t>
+    <t xml:space="preserve">-9.494***</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.179)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15.109)</t>
+    <t xml:space="preserve">(3.542)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.032)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_INST</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.064)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.180)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5.285)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.211)</t>
+    <t xml:space="preserve">1.726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.766***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.142)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.713)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.116)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_INFRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.477***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.545)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.292)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.007)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.363)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_ICT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.080***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.151***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.468)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.139)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_SKILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.293+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.890***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.968***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.167)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.389)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.380)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_LABOUR</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.028)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.035)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.295)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.562)</t>
+    <t xml:space="preserve">0.742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.524***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.961)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.444)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.344)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_MARKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.257+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.244***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.298***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.178)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.063)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_BUSINESS</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.810**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.025)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.860)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.271)</t>
+    <t xml:space="preserve">0.620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.187+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.509)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.346)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.986)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_INNOVATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.180***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.295***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.340)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.231)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.001)</t>
   </si>
   <si>
     <t xml:space="preserve">lGRP</t>
   </si>
   <si>
-    <t xml:space="preserve">0.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.012)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.589)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.182)</t>
+    <t xml:space="preserve">-0.566*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.672***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.396*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.275)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.148)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.192)</t>
   </si>
   <si>
     <t xml:space="preserve">lpop</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.129***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.607)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.030)</t>
+    <t xml:space="preserve">1.477***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.197**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.445***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.173***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.242)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.170)</t>
   </si>
   <si>
     <t xml:space="preserve">lbudget</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.929)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.146)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lhrpay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.333)</t>
+    <t xml:space="preserve">0.240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.556***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.417)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.096)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -239,31 +353,31 @@
     <t xml:space="preserve">Num.Obs.</t>
   </si>
   <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
     <t xml:space="preserve">40</t>
   </si>
   <si>
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004</t>
+    <t xml:space="preserve">0.915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.279</t>
+    <t xml:space="preserve">0.859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.774</t>
   </si>
 </sst>
 </file>
@@ -862,13 +976,13 @@
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -882,16 +996,16 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -899,22 +1013,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -922,22 +1036,22 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -945,22 +1059,22 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -968,91 +1082,275 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="E20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>80</v>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/reg/tot.xlsx
+++ b/reg/tot.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,202 +44,205 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">0.263</t>
+    <t xml:space="preserve">0.713</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">-1.006</t>
+    <t xml:space="preserve">5.440***</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.179)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15.109)</t>
+    <t xml:space="preserve">(0.693)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.041)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_INST</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.064)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.180)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5.285)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.211)</t>
+    <t xml:space="preserve">0.677*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.674***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.287)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.188)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.768)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_LABOUR</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.622</t>
+    <t xml:space="preserve">0.156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.110)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.057)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.954)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_BUSINESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.440***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.860*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.042)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.344)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lGRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.374***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.030)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.300)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.091**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.098*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.078)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lbudget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.612***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.046)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.329)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lhrpay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.068***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.973***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.063)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.062)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.028)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.035)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2.295)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.562)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_BUSINESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.810**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.025)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.860)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.271)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lGRP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.012)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.589)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.182)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lpop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.129***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.607)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.030)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lbudget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.929)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.146)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lhrpay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.333)</t>
-  </si>
-  <si>
     <t xml:space="preserve">gof</t>
   </si>
   <si>
     <t xml:space="preserve">Num.Obs.</t>
   </si>
   <si>
-    <t xml:space="preserve">37</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">40</t>
@@ -248,22 +251,25 @@
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004</t>
+    <t xml:space="preserve">0.778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.279</t>
+    <t xml:space="preserve">0.602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608</t>
   </si>
 </sst>
 </file>
@@ -793,13 +799,13 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -807,22 +813,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -830,22 +836,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>49</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -853,16 +859,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
         <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
@@ -876,22 +882,22 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
         <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -899,22 +905,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
         <v>61</v>
-      </c>
-      <c r="G14" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -922,22 +928,22 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -945,22 +951,22 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -968,76 +974,76 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1046,13 +1052,13 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
